--- a/Aplikasi Skripsi/Data Scrap/Ganjar_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Ganjar_JanFeb (Done).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C423D7-E3A7-4F95-AB59-4A47D4B2E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E69A2A-C6AC-4554-BDC9-9B3F8B0CAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10A4EE03-3E7D-4388-858C-2A2A5C4DE4B6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="2192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="2184">
   <si>
     <t>Sentiment</t>
   </si>
@@ -8482,36 +8482,6 @@
   <si>
     <t xml:space="preserve">Survei calon Presiden untuk Pilpres 2024, Elektabilitas dari Gubernur Jawa Tengah Ganjar Pranowo unggul diangka 37,7%.
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah semoga pak Ganjar Pranowo menjadi presiden Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ganjar Pranowo presiden 🇮🇩🇮🇩👍👍 2024-2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   semoga Pak Ganjar Pranowo yg di calonkan oleh PDIP untuk menjadi Presiden RI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganjar Pranowo
-Dapat instruksi dari presiden Jokowi
-Entaskan kemiskinan
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Saya coblos PKS
-Presiden coblos Ganjar Pranowo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawan Anies Baswedan, Pilpres 2024 akan Seru jika PDIP Usung Ganjar Pranowo: Jika PDI Perjuangan mengusung Gubernur Jawa Tengah Ganjar Pranowo dan Prabowo Subianto diusung Koalisi Kebangkitan Indonesia Raya (KIR) maju menjadi calon presiden di 2024, akan… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duet Ganjar Pranowo dan Erick Thohir, dinilai sebagai pasangan ideal untuk memimpin Indonesia ke depan di Pilpres 2024.
-Peluang kemenangan  di Pemilihan Presiden (Pilpres) 2024 akan besar jika berpasangan dengan  sebagai cawapresnya.
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gak Apple to Apple membandingkan dua orang tsb dengan Anies. Anies itu bakal calon presiden. Dia bukan pejabat negara lagi. Klo Erick Thohir dan Ganjar Pranowo masih menjabat kecuali keduanya sudah gak menjabat</t>
   </si>
 </sst>
 </file>
@@ -8886,10 +8856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430A600F-0A01-4C3C-B031-5EFA684E9B91}">
-  <dimension ref="A1:B2210"/>
+  <dimension ref="A1:B2201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2201" sqref="A2:A2201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26502,78 +26472,6 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2202">
-        <v>1</v>
-      </c>
-      <c r="B2202" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2203">
-        <v>1</v>
-      </c>
-      <c r="B2203" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="2204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2204">
-        <v>1</v>
-      </c>
-      <c r="B2204" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2205">
-        <v>1</v>
-      </c>
-      <c r="B2205" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="2206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2206">
-        <v>1</v>
-      </c>
-      <c r="B2206" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2207">
-        <v>1</v>
-      </c>
-      <c r="B2207" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="2208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2208">
-        <v>1</v>
-      </c>
-      <c r="B2208" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="2209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2209">
-        <v>1</v>
-      </c>
-      <c r="B2209" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="2210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2210">
-        <v>1</v>
-      </c>
-      <c r="B2210" t="s">
-        <v>2191</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B2210" xr:uid="{430A600F-0A01-4C3C-B031-5EFA684E9B91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aplikasi Skripsi/Data Scrap/Ganjar_JanFeb (Done).xlsx
+++ b/Aplikasi Skripsi/Data Scrap/Ganjar_JanFeb (Done).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E010B0-E8D3-40A5-86E6-E172AB40DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C7DFD3-2D47-4298-8455-826E214BD564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{10A4EE03-3E7D-4388-858C-2A2A5C4DE4B6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6497" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="2188">
   <si>
     <t>Sentiment</t>
   </si>
@@ -8494,15 +8494,6 @@
   </si>
   <si>
     <t>Bulan 3</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Netral</t>
-  </si>
-  <si>
-    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -8892,10 +8883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430A600F-0A01-4C3C-B031-5EFA684E9B91}">
-  <dimension ref="A1:D3250"/>
+  <dimension ref="A1:C3245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3251" sqref="F3251"/>
+      <selection activeCell="F3248" sqref="F3248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44452,7 +44443,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="3233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3233" t="s">
         <v>2187</v>
       </c>
@@ -44463,7 +44454,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="3234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3234" t="s">
         <v>2187</v>
       </c>
@@ -44474,7 +44465,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="3235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3235" t="s">
         <v>2187</v>
       </c>
@@ -44485,7 +44476,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="3236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3236" t="s">
         <v>2187</v>
       </c>
@@ -44496,7 +44487,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="3237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3237" t="s">
         <v>2187</v>
       </c>
@@ -44507,7 +44498,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="3238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3238" t="s">
         <v>2187</v>
       </c>
@@ -44518,7 +44509,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="3239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3239" t="s">
         <v>2187</v>
       </c>
@@ -44529,7 +44520,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="3240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3240" t="s">
         <v>2187</v>
       </c>
@@ -44540,7 +44531,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="3241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3241" t="s">
         <v>2187</v>
       </c>
@@ -44551,7 +44542,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="3242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3242" t="s">
         <v>2187</v>
       </c>
@@ -44562,7 +44553,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="3243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3243" t="s">
         <v>2187</v>
       </c>
@@ -44573,7 +44564,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="3244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3244" t="s">
         <v>2187</v>
       </c>
@@ -44584,7 +44575,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="3245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3245" t="s">
         <v>2187</v>
       </c>
@@ -44593,68 +44584,6 @@
       </c>
       <c r="C3245" t="s">
         <v>2183</v>
-      </c>
-    </row>
-    <row r="3247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3247" t="s">
-        <v>2188</v>
-      </c>
-      <c r="C3247" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D3247" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="3248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3248" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B3248">
-        <f>COUNTIFS($A$2:$A$3245, $A3248, $B$2:$B$3245, 1)</f>
-        <v>890</v>
-      </c>
-      <c r="C3248">
-        <f>COUNTIFS($A$2:$A$3245, $A3248, $B$2:$B$3245, 0)</f>
-        <v>84</v>
-      </c>
-      <c r="D3248">
-        <f>COUNTIFS($A$2:$A$3245, $A3248, $B$2:$B$3245, -1)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3249" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B3249">
-        <f t="shared" ref="B3249:B3250" si="0">COUNTIFS($A$2:$A$3245, $A3249, $B$2:$B$3245, 1)</f>
-        <v>1083</v>
-      </c>
-      <c r="C3249">
-        <f t="shared" ref="C3249:C3250" si="1">COUNTIFS($A$2:$A$3245, $A3249, $B$2:$B$3245, 0)</f>
-        <v>78</v>
-      </c>
-      <c r="D3249">
-        <f t="shared" ref="D3249:D3250" si="2">COUNTIFS($A$2:$A$3245, $A3249, $B$2:$B$3245, -1)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3250" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B3250">
-        <f t="shared" si="0"/>
-        <v>968</v>
-      </c>
-      <c r="C3250">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="D3250">
-        <f t="shared" si="2"/>
-        <v>31</v>
       </c>
     </row>
   </sheetData>
